--- a/reference/StaticData-mod.xlsx
+++ b/reference/StaticData-mod.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edz/Documents/Princeton/Senior/ORF411/OJ/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edz/Documents/Princeton/Senior/ORF411/OJ/not_grapefruit/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4927,7 +4927,7 @@
   <dimension ref="A1:BU101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
